--- a/src/chi_bd_definitivo.xlsx
+++ b/src/chi_bd_definitivo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="53">
   <si>
     <t xml:space="preserve">Database</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve">poker avg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higgs</t>
   </si>
 </sst>
 </file>
@@ -5349,10 +5352,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ27"/>
+  <dimension ref="A2:AMJ29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6048,6 +6051,31 @@
       </c>
       <c r="AMJ27" s="0"/>
     </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>0.5847</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>0.5772</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>0.5641</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="9" t="n">
+        <v>15115</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>9658</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>263.24</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/chi_bd_definitivo.xlsx
+++ b/src/chi_bd_definitivo.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="chi_bd_definitivo" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="53">
   <si>
     <t xml:space="preserve">Database</t>
   </si>
@@ -198,6 +200,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -219,6 +222,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -275,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,10 +310,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -407,16 +407,16 @@
   </sheetPr>
   <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M74" activeCellId="0" sqref="M74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.91"/>
@@ -5354,13 +5354,14 @@
   </sheetPr>
   <dimension ref="A2:AMJ29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5394,7 +5395,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -5552,20 +5553,20 @@
         <f aca="false">AVERAGE(D5:D8)</f>
         <v>0.85607475</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="n">
+      <c r="E9" s="4"/>
+      <c r="F9" s="8" t="n">
         <f aca="false">AVERAGE(F5:F8)</f>
         <v>69.25</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="8" t="n">
         <f aca="false">AVERAGE(G5:G8)</f>
         <v>75</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="8" t="n">
         <f aca="false">AVERAGE(H5:H8)</f>
         <v>23.8095375</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -5688,15 +5689,15 @@
         <v>0.8774655</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="8" t="n">
         <f aca="false">AVERAGE(F10:F13)</f>
         <v>23.75</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="8" t="n">
         <f aca="false">AVERAGE(G10:G13)</f>
         <v>81</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="8" t="n">
         <f aca="false">AVERAGE(H10:H13)</f>
         <v>2.81446475</v>
       </c>
@@ -5823,15 +5824,15 @@
         <v>0.99773425</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="8" t="n">
         <f aca="false">AVERAGE(F15:F18)</f>
         <v>4373.25</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="8" t="n">
         <f aca="false">AVERAGE(G15:G18)</f>
         <v>76.5</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="8" t="n">
         <f aca="false">AVERAGE(H15:H18)</f>
         <v>154.79456325</v>
       </c>
@@ -5958,15 +5959,15 @@
         <v>0.58170675</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="8" t="n">
         <f aca="false">AVERAGE(F20:F23)</f>
         <v>58.25</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="8" t="n">
         <f aca="false">AVERAGE(G20:G23)</f>
         <v>108</v>
       </c>
-      <c r="H24" s="9" t="n">
+      <c r="H24" s="8" t="n">
         <f aca="false">AVERAGE(H20:H23)</f>
         <v>10.521337</v>
       </c>
@@ -6024,30 +6025,30 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="n">
-        <f aca="false">AVERAGE(B4:B26)</f>
-        <v>0.713090217391304</v>
-      </c>
-      <c r="C27" s="11" t="n">
-        <f aca="false">AVERAGE(C4:C26)</f>
-        <v>0.78573152173913</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <f aca="false">AVERAGE(D4:D26)</f>
-        <v>0.822750358695652</v>
-      </c>
-      <c r="F27" s="12" t="n">
-        <f aca="false">AVERAGE(F4:F26)</f>
-        <v>1073.45652173913</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <f aca="false">AVERAGE(G4:G26)</f>
-        <v>84.9782608695652</v>
-      </c>
-      <c r="H27" s="12" t="n">
-        <f aca="false">AVERAGE(H4:H26)</f>
-        <v>45.9437783695652</v>
+    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="10" t="n">
+        <f aca="false">AVERAGE(B4:B8,B10:B13,B15:B18,B20:B23,B25:B26)</f>
+        <v>0.710678947368421</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <f aca="false">AVERAGE(C4:C8,C10:C13,C15:C18,C20:C23,C25:C26)</f>
+        <v>0.782342105263158</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <f aca="false">AVERAGE(D4:D8,D10:D13,D15:D18,D20:D23,D25:D26)</f>
+        <v>0.82159352631579</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <f aca="false">AVERAGE(F4:F8,F10:F13,F15:F18,F20:F23,F25:F26)</f>
+        <v>1061.31578947368</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <f aca="false">AVERAGE(G4:G8,G10:G13,G15:G18,G20:G23,G25:G26)</f>
+        <v>84.9473684210526</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <f aca="false">AVERAGE(H4:H8,H10:H13,H15:H18,H20:H23,H25:H26)</f>
+        <v>45.5140526315789</v>
       </c>
       <c r="AMJ27" s="0"/>
     </row>
@@ -6065,16 +6066,1412 @@
         <v>0.5641</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="8" t="n">
         <v>15115</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="8" t="n">
         <v>9658</v>
       </c>
-      <c r="H29" s="9" t="n">
+      <c r="H29" s="8" t="n">
         <v>263.24</v>
       </c>
       <c r="I29" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:H29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.5231</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.323364</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>5.238724</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.7528</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.7531</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.771367</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>24.782217</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.7296</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.7291</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.769958</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>25.674762</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.9551</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.9565</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.951701</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>22.243781</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.9089</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.9281</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.931258</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>22.53739</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <f aca="false">AVERAGE(B5:B8)</f>
+        <v>0.8366</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <f aca="false">AVERAGE(C5:C8)</f>
+        <v>0.8417</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <f aca="false">AVERAGE(D5:D8)</f>
+        <v>0.856071</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8" t="n">
+        <f aca="false">AVERAGE(F5:F8)</f>
+        <v>69.25</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <f aca="false">AVERAGE(G5:G8)</f>
+        <v>75</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <f aca="false">AVERAGE(H5:H8)</f>
+        <v>23.8095375</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5871</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.5871</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.505293</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>2.947643</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.6919</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.480456</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>2.924254</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.8336</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.8675</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.615503</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.558397</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5307</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.7139</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.484866</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>2.827565</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <f aca="false">AVERAGE(B10:B13)</f>
+        <v>0.62715</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">AVERAGE(C10:C13)</f>
+        <v>0.7151</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">AVERAGE(D10:D13)</f>
+        <v>0.5215295</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8" t="n">
+        <f aca="false">AVERAGE(F10:F13)</f>
+        <v>23.75</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <f aca="false">AVERAGE(G10:G13)</f>
+        <v>81</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <f aca="false">AVERAGE(H10:H13)</f>
+        <v>2.81446475</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.999201</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="n">
+        <v>4362</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>155.741865</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.999263</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="n">
+        <v>4317</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>154.137353</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.9924</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.992544</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="n">
+        <v>4402</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>153.418573</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.9251</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.983748</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="n">
+        <v>4412</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>155.880462</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <f aca="false">AVERAGE(B15:B18)</f>
+        <v>0.978625</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <f aca="false">AVERAGE(C15:C18)</f>
+        <v>0.993675</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">AVERAGE(D15:D18)</f>
+        <v>0.993689</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8" t="n">
+        <f aca="false">AVERAGE(F15:F18)</f>
+        <v>4373.25</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <f aca="false">AVERAGE(G15:G18)</f>
+        <v>76.5</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <f aca="false">AVERAGE(H15:H18)</f>
+        <v>154.79456325</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0.6336</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.622404</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>10.30147</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.5848</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.567926</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>10.74909</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.3713</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.6703</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.541126</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.033058</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.7387</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.595371</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>11.00173</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <f aca="false">AVERAGE(B20:B23)</f>
+        <v>0.4558</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <f aca="false">AVERAGE(C20:C23)</f>
+        <v>0.65685</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">AVERAGE(D20:D23)</f>
+        <v>0.58170675</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8" t="n">
+        <f aca="false">AVERAGE(F20:F23)</f>
+        <v>58.25</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <f aca="false">AVERAGE(G20:G23)</f>
+        <v>108</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <f aca="false">AVERAGE(H20:H23)</f>
+        <v>10.521337</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.9595</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0.9597</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.938098</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1.286311</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.5477</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>0.5524</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.672173</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>90.482355</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="n">
+        <f aca="false">AVERAGE(B4:B8,B10:B13,B15:B18,B20:B23,B25:B26)</f>
+        <v>0.710678947368421</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <f aca="false">AVERAGE(C4:C8,C10:C13,C15:C18,C20:C23,C25:C26)</f>
+        <v>0.782342105263158</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <f aca="false">AVERAGE(D4:D8,D10:D13,D15:D18,D20:D23,D25:D26)</f>
+        <v>0.723453684210526</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="11" t="n">
+        <f aca="false">AVERAGE(F4:F8,F10:F13,F15:F18,F20:F23,F25:F26)</f>
+        <v>1061.31578947368</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <f aca="false">AVERAGE(G4:G8,G10:G13,G15:G18,G20:G23,G25:G26)</f>
+        <v>84.9473684210526</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <f aca="false">AVERAGE(H4:H8,H10:H13,H15:H18,H20:H23,H25:H26)</f>
+        <v>45.5140526315789</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>0.5847</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>0.5772</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>0.5641</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="8" t="n">
+        <v>15115</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>9658</v>
+      </c>
+      <c r="H29" s="8" t="n">
+        <v>263.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:H29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.5231</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.57517</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.7528</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.7531</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.771367</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>24.782217</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.7296</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.7291</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.769958</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>25.674762</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.9551</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.9565</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.951701</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>22.243781</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.9089</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.9281</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.931258</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>22.53739</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <f aca="false">AVERAGE(B5:B8)</f>
+        <v>0.8366</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <f aca="false">AVERAGE(C5:C8)</f>
+        <v>0.8417</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <f aca="false">AVERAGE(D5:D8)</f>
+        <v>0.856071</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8" t="n">
+        <f aca="false">AVERAGE(F5:F8)</f>
+        <v>69.25</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <f aca="false">AVERAGE(G5:G8)</f>
+        <v>75</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <f aca="false">AVERAGE(H5:H8)</f>
+        <v>23.8095375</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5871</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.5871</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.9123</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>2.947643</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.6919</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.7419</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>2.924254</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.8336</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.8675</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.9049</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.558397</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5307</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.7139</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.7108</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>2.827565</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <f aca="false">AVERAGE(B10:B13)</f>
+        <v>0.62715</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">AVERAGE(C10:C13)</f>
+        <v>0.7151</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">AVERAGE(D10:D13)</f>
+        <v>0.817475</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8" t="n">
+        <f aca="false">AVERAGE(F10:F13)</f>
+        <v>23.75</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <f aca="false">AVERAGE(G10:G13)</f>
+        <v>81</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <f aca="false">AVERAGE(H10:H13)</f>
+        <v>2.81446475</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.999201</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="n">
+        <v>4362</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>155.741865</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="n">
+        <v>4317</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>154.137353</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.9924</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.992544</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="n">
+        <v>4402</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>153.418573</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.9251</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.983748</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="n">
+        <v>4412</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>155.880462</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <f aca="false">AVERAGE(B15:B18)</f>
+        <v>0.978625</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <f aca="false">AVERAGE(C15:C18)</f>
+        <v>0.993675</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">AVERAGE(D15:D18)</f>
+        <v>0.99369825</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8" t="n">
+        <f aca="false">AVERAGE(F15:F18)</f>
+        <v>4373.25</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <f aca="false">AVERAGE(G15:G18)</f>
+        <v>76.5</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <f aca="false">AVERAGE(H15:H18)</f>
+        <v>154.79456325</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0.6336</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.622404</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>10.30147</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.5848</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.567926</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>10.74909</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.3713</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.6703</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.541126</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.033058</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.7387</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.595371</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>11.00173</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <f aca="false">AVERAGE(B20:B23)</f>
+        <v>0.4558</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <f aca="false">AVERAGE(C20:C23)</f>
+        <v>0.65685</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">AVERAGE(D20:D23)</f>
+        <v>0.58170675</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8" t="n">
+        <f aca="false">AVERAGE(F20:F23)</f>
+        <v>58.25</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <f aca="false">AVERAGE(G20:G23)</f>
+        <v>108</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <f aca="false">AVERAGE(H20:H23)</f>
+        <v>10.521337</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.9595</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0.9597</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.938098</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1.286311</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.5477</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>0.5524</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.672173</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>90.482355</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="n">
+        <f aca="false">AVERAGE(B4:B8,B10:B13,B15:B18,B20:B23,B25:B26)</f>
+        <v>0.710678947368421</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <f aca="false">AVERAGE(C4:C8,C10:C13,C15:C18,C20:C23,C25:C26)</f>
+        <v>0.782342105263158</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <f aca="false">AVERAGE(D4:D8,D10:D13,D15:D18,D20:D23,D25:D26)</f>
+        <v>0.799012894736842</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="11" t="n">
+        <f aca="false">AVERAGE(F4:F8,F10:F13,F15:F18,F20:F23,F25:F26)</f>
+        <v>1061.31578947368</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <f aca="false">AVERAGE(G4:G8,G10:G13,G15:G18,G20:G23,G25:G26)</f>
+        <v>84.9473684210526</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <f aca="false">AVERAGE(H4:H8,H10:H13,H15:H18,H20:H23,H25:H26)</f>
+        <v>45.4804355789474</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>0.5847</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>0.5772</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>0.5641</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="8" t="n">
+        <v>15115</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>9658</v>
+      </c>
+      <c r="H29" s="8" t="n">
+        <v>263.24</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/chi_bd_definitivo.xlsx
+++ b/src/chi_bd_definitivo.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="chi_bd_definitivo" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="56">
   <si>
     <t xml:space="preserve">Database</t>
   </si>
@@ -183,6 +185,15 @@
   <si>
     <t xml:space="preserve">higgs</t>
   </si>
+  <si>
+    <t xml:space="preserve">Geometric Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secuencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHI</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +206,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -220,6 +231,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF972F"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -279,7 +297,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,6 +343,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,7 +413,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -407,7 +437,7 @@
   </sheetPr>
   <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5354,7 +5384,7 @@
   </sheetPr>
   <dimension ref="A2:AMJ29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -6095,7 +6125,7 @@
   </sheetPr>
   <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6793,8 +6823,8 @@
   </sheetPr>
   <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7482,4 +7512,1591 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:H29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.74"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.5231</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.364416</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.7528</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.7531</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.771367</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>24.782217</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.7296</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.7291</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.769958</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>25.674762</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.9551</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.9565</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.951701</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>22.243781</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.9089</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.9281</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.931258</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>22.53739</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <f aca="false">AVERAGE(B5:B8)</f>
+        <v>0.8366</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <f aca="false">AVERAGE(C5:C8)</f>
+        <v>0.8417</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <f aca="false">AVERAGE(D5:D8)</f>
+        <v>0.856071</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8" t="n">
+        <f aca="false">AVERAGE(F5:F8)</f>
+        <v>69.25</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <f aca="false">AVERAGE(G5:G8)</f>
+        <v>75</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <f aca="false">AVERAGE(H5:H8)</f>
+        <v>23.8095375</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5871</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.5871</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.9123</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>2.947643</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.6919</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.7419</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>2.924254</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.8336</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.8675</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.9049</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.558397</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5307</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.7139</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.7108</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>2.827565</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <f aca="false">AVERAGE(B10:B13)</f>
+        <v>0.62715</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">AVERAGE(C10:C13)</f>
+        <v>0.7151</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">AVERAGE(D10:D13)</f>
+        <v>0.817475</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8" t="n">
+        <f aca="false">AVERAGE(F10:F13)</f>
+        <v>23.75</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <f aca="false">AVERAGE(G10:G13)</f>
+        <v>81</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <f aca="false">AVERAGE(H10:H13)</f>
+        <v>2.81446475</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.999201</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="n">
+        <v>4362</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>155.741865</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="n">
+        <v>4317</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>154.137353</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.9924</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.992544</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="n">
+        <v>4402</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>153.418573</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.9251</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.983748</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="n">
+        <v>4412</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>155.880462</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <f aca="false">AVERAGE(B15:B18)</f>
+        <v>0.978625</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <f aca="false">AVERAGE(C15:C18)</f>
+        <v>0.993675</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">AVERAGE(D15:D18)</f>
+        <v>0.99369825</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8" t="n">
+        <f aca="false">AVERAGE(F15:F18)</f>
+        <v>4373.25</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <f aca="false">AVERAGE(G15:G18)</f>
+        <v>76.5</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <f aca="false">AVERAGE(H15:H18)</f>
+        <v>154.79456325</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0.6336</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.622404</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>10.30147</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.5848</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.567926</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>10.74909</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.3713</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.6703</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.541126</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.033058</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.7387</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.595371</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>11.00173</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <f aca="false">AVERAGE(B20:B23)</f>
+        <v>0.4558</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <f aca="false">AVERAGE(C20:C23)</f>
+        <v>0.65685</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">AVERAGE(D20:D23)</f>
+        <v>0.58170675</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8" t="n">
+        <f aca="false">AVERAGE(F20:F23)</f>
+        <v>58.25</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <f aca="false">AVERAGE(G20:G23)</f>
+        <v>108</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <f aca="false">AVERAGE(H20:H23)</f>
+        <v>10.521337</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.9595</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0.9597</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.938098</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1.286311</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.5477</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>0.5524</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.672173</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>90.482355</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="n">
+        <f aca="false">AVERAGE(B4:B8,B10:B13,B15:B18,B20:B23,B25:B26)</f>
+        <v>0.710678947368421</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <f aca="false">AVERAGE(C4:C8,C10:C13,C15:C18,C20:C23,C25:C26)</f>
+        <v>0.782342105263158</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <f aca="false">AVERAGE(D4:D8,D10:D13,D15:D18,D20:D23,D25:D26)</f>
+        <v>0.787920578947368</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="11" t="n">
+        <f aca="false">AVERAGE(F4:F8,F10:F13,F15:F18,F20:F23,F25:F26)</f>
+        <v>1061.31578947368</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <f aca="false">AVERAGE(G4:G8,G10:G13,G15:G18,G20:G23,G25:G26)</f>
+        <v>84.9473684210526</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <f aca="false">AVERAGE(H4:H8,H10:H13,H15:H18,H20:H23,H25:H26)</f>
+        <v>45.4804355789474</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>0.5847</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>0.5772</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>0.5641</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="8" t="n">
+        <v>15115</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>9658</v>
+      </c>
+      <c r="H29" s="8" t="n">
+        <v>263.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L26" activeCellId="0" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.5231</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>0.3883</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.364416</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.7528</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.7531</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.7536</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.771367</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1989.6</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>24.782217</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.7296</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.7291</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.7291</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.769958</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2010.5</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>25.674762</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.9551</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.9565</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.9563</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.951701</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>2013.2</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>22.243781</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.9089</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.9281</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.9282</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.931258</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2015.8</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>22.53739</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <f aca="false">AVERAGE(B5:B8)</f>
+        <v>0.8366</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <f aca="false">AVERAGE(C5:C8)</f>
+        <v>0.8417</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <f aca="false">AVERAGE(D5:D8)</f>
+        <v>0.8418</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <f aca="false">AVERAGE(E5:E8)</f>
+        <v>0.856071</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="8" t="n">
+        <f aca="false">AVERAGE(G5:G8)</f>
+        <v>69.25</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <f aca="false">AVERAGE(H5:H8)</f>
+        <v>75</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <f aca="false">AVERAGE(I5:I8)</f>
+        <v>2007.275</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <f aca="false">AVERAGE(J5:J8)</f>
+        <v>23.8095375</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5871</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.5871</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.5053</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.9123</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>2.947643</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.6919</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.7419</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>489.8</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>2.924254</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.8336</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.8675</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.9049</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>491.6</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>2.558397</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5307</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.7139</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.7108</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>489.7</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>2.827565</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <f aca="false">AVERAGE(B10:B13)</f>
+        <v>0.62715</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">AVERAGE(C10:C13)</f>
+        <v>0.7151</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">AVERAGE(D10:D13)</f>
+        <v>0.52865</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">AVERAGE(E10:E13)</f>
+        <v>0.817475</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="8" t="n">
+        <f aca="false">AVERAGE(G10:G13)</f>
+        <v>23.75</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <f aca="false">AVERAGE(H10:H13)</f>
+        <v>81</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <f aca="false">AVERAGE(I10:I13)</f>
+        <v>490.375</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <f aca="false">AVERAGE(J10:J13)</f>
+        <v>2.81446475</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.999201</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="n">
+        <v>4362</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>4285.5</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>155.741865</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="n">
+        <v>4317</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>4272.1</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>154.137353</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.9924</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.9923</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.992544</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="n">
+        <v>4402</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>4267.6</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>153.418573</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.9251</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.9854</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.983748</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="n">
+        <v>4412</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>4279.9</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>155.880462</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <f aca="false">AVERAGE(B15:B18)</f>
+        <v>0.978625</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <f aca="false">AVERAGE(C15:C18)</f>
+        <v>0.993675</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">AVERAGE(D15:D18)</f>
+        <v>0.994</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">AVERAGE(E15:E18)</f>
+        <v>0.99369825</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="8" t="n">
+        <f aca="false">AVERAGE(G15:G18)</f>
+        <v>4373.25</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <f aca="false">AVERAGE(H15:H18)</f>
+        <v>76.5</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <f aca="false">AVERAGE(I15:I18)</f>
+        <v>4276.275</v>
+      </c>
+      <c r="J19" s="8" t="n">
+        <f aca="false">AVERAGE(J15:J18)</f>
+        <v>154.79456325</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0.6336</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.6326</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0.622404</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>6770</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>10.30147</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.5848</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.5847</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.567926</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>6771</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>10.74909</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.3713</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.6703</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.6738</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.541126</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>6772.2</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>10.033058</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.7387</v>
+      </c>
+      <c r="D23" s="13" t="n">
+        <v>0.7405</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.595371</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>6775</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>11.00173</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <f aca="false">AVERAGE(B20:B23)</f>
+        <v>0.4558</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <f aca="false">AVERAGE(C20:C23)</f>
+        <v>0.65685</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">AVERAGE(D20:D23)</f>
+        <v>0.6579</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">AVERAGE(E20:E23)</f>
+        <v>0.58170675</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="8" t="n">
+        <f aca="false">AVERAGE(G20:G23)</f>
+        <v>58.25</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <f aca="false">AVERAGE(H20:H23)</f>
+        <v>108</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <f aca="false">AVERAGE(I20:I23)</f>
+        <v>6772.05</v>
+      </c>
+      <c r="J24" s="8" t="n">
+        <f aca="false">AVERAGE(J20:J23)</f>
+        <v>10.521337</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.9595</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0.9597</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0.938098</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>1.286311</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.5477</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>0.5524</v>
+      </c>
+      <c r="D26" s="13" t="n">
+        <v>0.5523</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.672173</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>15597.9</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>90.482355</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="n">
+        <f aca="false">AVERAGE(B4:B8,B10:B13,B15:B18,B20:B23,B25:B26)</f>
+        <v>0.710678947368421</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <f aca="false">AVERAGE(C4:C8,C10:C13,C15:C18,C20:C23,C25:C26)</f>
+        <v>0.782342105263158</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <f aca="false">AVERAGE(D4:D8,D10:D13,D15:D18,D20:D23,D25:D26)</f>
+        <v>0.736252631578947</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <f aca="false">AVERAGE(E4:E8,E10:E13,E15:E18,E20:E23,E25:E26)</f>
+        <v>0.787920578947368</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="11" t="n">
+        <f aca="false">AVERAGE(G4:G8,G10:G13,G15:G18,G20:G23,G25:G26)</f>
+        <v>1061.31578947368</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <f aca="false">AVERAGE(H4:H8,H10:H13,H15:H18,H20:H23,H25:H26)</f>
+        <v>84.9473684210526</v>
+      </c>
+      <c r="I27" s="11" t="n">
+        <f aca="false">AVERAGE(I4:I8,I10:I13,I15:I18,I20:I23,I25:I26)</f>
+        <v>3743.5</v>
+      </c>
+      <c r="J27" s="11" t="n">
+        <f aca="false">AVERAGE(J4:J8,J10:J13,J15:J18,J20:J23,J25:J26)</f>
+        <v>45.4804355789474</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>0.5847</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>0.5772</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="n">
+        <v>0.5641</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="8" t="n">
+        <v>15115</v>
+      </c>
+      <c r="H29" s="8" t="n">
+        <v>9658</v>
+      </c>
+      <c r="I29" s="14" t="n">
+        <v>2520000</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>263.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>